--- a/Parts-List/Excitation-Parts.xlsx
+++ b/Parts-List/Excitation-Parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\Parts-List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{384D8B73-F1F4-416F-AED4-C6107D56C69B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65FB4CA-DF06-40A9-9E8E-59F55048C35E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9493AF8A-50A7-464E-9CCB-E4CFB6C7D5A6}"/>
   </bookViews>
